--- a/example/Ki67.xlsx
+++ b/example/Ki67.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Yi/Documents/GitHub-Biostat/prgmetasa-r/example-results/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhouy\Documents\GitHub-Bios\R-prgmetasa\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87C23769-38AF-3547-BAE0-293FB7ADBCDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88538DB8-79A3-482B-AF0F-25E9B19A51A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7420" yWindow="980" windowWidth="28040" windowHeight="15720" activeTab="4" xr2:uid="{EC945CFC-336C-C141-9264-04BAF0640FB4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{EC945CFC-336C-C141-9264-04BAF0640FB4}"/>
   </bookViews>
   <sheets>
     <sheet name="HR" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="HR_all" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">HR_all!$J$1:$J$39</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">HR_all!$K$1:$K$39</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,9 +30,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -40,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="93">
   <si>
     <t>cutoff</t>
   </si>
@@ -203,6 +206,123 @@
   <si>
     <t>n</t>
   </si>
+  <si>
+    <t>Bevilacqua</t>
+  </si>
+  <si>
+    <t>Bos</t>
+  </si>
+  <si>
+    <t>Brown</t>
+  </si>
+  <si>
+    <t>Caly</t>
+  </si>
+  <si>
+    <t>Domagala (no-)</t>
+  </si>
+  <si>
+    <t>Domagala (no+)</t>
+  </si>
+  <si>
+    <t>Erdern</t>
+  </si>
+  <si>
+    <t>Fresno</t>
+  </si>
+  <si>
+    <t>Gasparani</t>
+  </si>
+  <si>
+    <t>Gonzalez</t>
+  </si>
+  <si>
+    <t>Goodson</t>
+  </si>
+  <si>
+    <t>Heatley</t>
+  </si>
+  <si>
+    <t>Hlupic</t>
+  </si>
+  <si>
+    <t>Jacqumier</t>
+  </si>
+  <si>
+    <t>Jansen</t>
+  </si>
+  <si>
+    <t>Jensen</t>
+  </si>
+  <si>
+    <t>Liu</t>
+  </si>
+  <si>
+    <t>Locker</t>
+  </si>
+  <si>
+    <t>Mottolese</t>
+  </si>
+  <si>
+    <t>Pelikainen</t>
+  </si>
+  <si>
+    <t>Piega</t>
+  </si>
+  <si>
+    <t>Pietilaien</t>
+  </si>
+  <si>
+    <t>Pinder</t>
+  </si>
+  <si>
+    <t>Pinto</t>
+  </si>
+  <si>
+    <t>Querzoli</t>
+  </si>
+  <si>
+    <t>Railo</t>
+  </si>
+  <si>
+    <t>Rudolph (a)</t>
+  </si>
+  <si>
+    <t>Rudolph (b)</t>
+  </si>
+  <si>
+    <t>Seshadri</t>
+  </si>
+  <si>
+    <t>Thor</t>
+  </si>
+  <si>
+    <t>Trihia (n0)</t>
+  </si>
+  <si>
+    <t>Trihia (n+)</t>
+  </si>
+  <si>
+    <t>Tynninen</t>
+  </si>
+  <si>
+    <t>Veronese</t>
+  </si>
+  <si>
+    <t>Wintzer</t>
+  </si>
+  <si>
+    <t>Weikel (a)</t>
+  </si>
+  <si>
+    <t>Weikel (b)no-</t>
+  </si>
+  <si>
+    <t>Weikel (b)no+</t>
+  </si>
+  <si>
+    <t>author2</t>
+  </si>
 </sst>
 </file>
 
@@ -265,9 +385,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -305,7 +425,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -411,7 +531,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -553,7 +673,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -565,12 +685,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>52</v>
       </c>
@@ -590,7 +710,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -610,7 +730,7 @@
         <v>7.39</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -630,7 +750,7 @@
         <v>4.1399999999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -650,7 +770,7 @@
         <v>8.99</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -670,7 +790,7 @@
         <v>2.86</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -690,7 +810,7 @@
         <v>122.36</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -710,7 +830,7 @@
         <v>4.59</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -730,7 +850,7 @@
         <v>7.15</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -750,7 +870,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -770,7 +890,7 @@
         <v>8.06</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -790,7 +910,7 @@
         <v>14.7</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -810,7 +930,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -830,7 +950,7 @@
         <v>2.52</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -850,7 +970,7 @@
         <v>2.87</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -870,7 +990,7 @@
         <v>3.77</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -890,7 +1010,7 @@
         <v>7.99</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -910,7 +1030,7 @@
         <v>3.08</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -930,7 +1050,7 @@
         <v>3.41</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -950,7 +1070,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -970,7 +1090,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -990,7 +1110,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -1010,7 +1130,7 @@
         <v>3.51</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -1030,7 +1150,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -1061,9 +1181,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>52</v>
       </c>
@@ -1086,7 +1206,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1109,7 +1229,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1132,7 +1252,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1155,7 +1275,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -1178,7 +1298,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -1201,7 +1321,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -1224,7 +1344,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -1247,7 +1367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -1270,7 +1390,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -1293,7 +1413,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>36</v>
       </c>
@@ -1316,7 +1436,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -1339,7 +1459,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -1362,7 +1482,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -1398,12 +1518,12 @@
       <selection activeCell="D172" sqref="D172:D183"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.1640625" customWidth="1"/>
+    <col min="1" max="1" width="19.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>52</v>
       </c>
@@ -1426,7 +1546,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1449,7 +1569,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1472,7 +1592,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1495,7 +1615,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1518,7 +1638,7 @@
         <v>0.96499999999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1541,7 +1661,7 @@
         <v>0.96499999999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1564,7 +1684,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -1587,7 +1707,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -1610,7 +1730,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -1633,7 +1753,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -1656,7 +1776,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -1679,7 +1799,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -1702,7 +1822,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -1725,7 +1845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -1748,7 +1868,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -1771,7 +1891,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -1794,7 +1914,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -1817,7 +1937,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -1840,7 +1960,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>6</v>
       </c>
@@ -1863,7 +1983,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -1886,7 +2006,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -1909,7 +2029,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>6</v>
       </c>
@@ -1932,7 +2052,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>6</v>
       </c>
@@ -1955,7 +2075,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -1978,7 +2098,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -2001,7 +2121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -2024,7 +2144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>7</v>
       </c>
@@ -2047,7 +2167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>7</v>
       </c>
@@ -2070,7 +2190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -2093,7 +2213,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>7</v>
       </c>
@@ -2116,7 +2236,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>7</v>
       </c>
@@ -2139,7 +2259,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>7</v>
       </c>
@@ -2162,7 +2282,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>7</v>
       </c>
@@ -2185,7 +2305,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>7</v>
       </c>
@@ -2208,7 +2328,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>8</v>
       </c>
@@ -2231,7 +2351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>8</v>
       </c>
@@ -2254,7 +2374,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>8</v>
       </c>
@@ -2277,7 +2397,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>8</v>
       </c>
@@ -2300,7 +2420,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>8</v>
       </c>
@@ -2323,7 +2443,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>8</v>
       </c>
@@ -2346,7 +2466,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>8</v>
       </c>
@@ -2369,7 +2489,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>8</v>
       </c>
@@ -2392,7 +2512,7 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>8</v>
       </c>
@@ -2415,7 +2535,7 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>8</v>
       </c>
@@ -2438,7 +2558,7 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>9</v>
       </c>
@@ -2461,7 +2581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>9</v>
       </c>
@@ -2484,7 +2604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>9</v>
       </c>
@@ -2507,7 +2627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>9</v>
       </c>
@@ -2530,7 +2650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>9</v>
       </c>
@@ -2553,7 +2673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>9</v>
       </c>
@@ -2576,7 +2696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>9</v>
       </c>
@@ -2599,7 +2719,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>9</v>
       </c>
@@ -2622,7 +2742,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>9</v>
       </c>
@@ -2645,7 +2765,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>9</v>
       </c>
@@ -2668,7 +2788,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>9</v>
       </c>
@@ -2691,7 +2811,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>9</v>
       </c>
@@ -2714,7 +2834,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>10</v>
       </c>
@@ -2737,7 +2857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>10</v>
       </c>
@@ -2760,7 +2880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>10</v>
       </c>
@@ -2783,7 +2903,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>10</v>
       </c>
@@ -2806,7 +2926,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>10</v>
       </c>
@@ -2829,7 +2949,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>10</v>
       </c>
@@ -2852,7 +2972,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>10</v>
       </c>
@@ -2875,7 +2995,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>10</v>
       </c>
@@ -2898,7 +3018,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>10</v>
       </c>
@@ -2921,7 +3041,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>10</v>
       </c>
@@ -2944,7 +3064,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>10</v>
       </c>
@@ -2967,7 +3087,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>10</v>
       </c>
@@ -2990,7 +3110,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>11</v>
       </c>
@@ -3013,7 +3133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>11</v>
       </c>
@@ -3036,7 +3156,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>11</v>
       </c>
@@ -3059,7 +3179,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>11</v>
       </c>
@@ -3082,7 +3202,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>11</v>
       </c>
@@ -3105,7 +3225,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>11</v>
       </c>
@@ -3128,7 +3248,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>11</v>
       </c>
@@ -3151,7 +3271,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>11</v>
       </c>
@@ -3174,7 +3294,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>11</v>
       </c>
@@ -3197,7 +3317,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>11</v>
       </c>
@@ -3220,7 +3340,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>11</v>
       </c>
@@ -3243,7 +3363,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>11</v>
       </c>
@@ -3266,7 +3386,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>12</v>
       </c>
@@ -3289,7 +3409,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>12</v>
       </c>
@@ -3312,7 +3432,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>12</v>
       </c>
@@ -3335,7 +3455,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>12</v>
       </c>
@@ -3358,7 +3478,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>12</v>
       </c>
@@ -3381,7 +3501,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>12</v>
       </c>
@@ -3404,7 +3524,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>12</v>
       </c>
@@ -3427,7 +3547,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>12</v>
       </c>
@@ -3450,7 +3570,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>12</v>
       </c>
@@ -3473,7 +3593,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>12</v>
       </c>
@@ -3496,7 +3616,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>12</v>
       </c>
@@ -3519,7 +3639,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>12</v>
       </c>
@@ -3542,7 +3662,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>13</v>
       </c>
@@ -3565,7 +3685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>13</v>
       </c>
@@ -3588,7 +3708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>13</v>
       </c>
@@ -3611,7 +3731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>13</v>
       </c>
@@ -3634,7 +3754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>13</v>
       </c>
@@ -3657,7 +3777,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>13</v>
       </c>
@@ -3680,7 +3800,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>13</v>
       </c>
@@ -3703,7 +3823,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>13</v>
       </c>
@@ -3726,7 +3846,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>13</v>
       </c>
@@ -3749,7 +3869,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>13</v>
       </c>
@@ -3772,7 +3892,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>13</v>
       </c>
@@ -3795,7 +3915,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>13</v>
       </c>
@@ -3818,7 +3938,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>14</v>
       </c>
@@ -3841,7 +3961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>14</v>
       </c>
@@ -3864,7 +3984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>14</v>
       </c>
@@ -3887,7 +4007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>14</v>
       </c>
@@ -3910,7 +4030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>14</v>
       </c>
@@ -3933,7 +4053,7 @@
         <v>0.80909090900000002</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>14</v>
       </c>
@@ -3956,7 +4076,7 @@
         <v>0.80909090900000002</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>15</v>
       </c>
@@ -3979,7 +4099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>15</v>
       </c>
@@ -4002,7 +4122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>15</v>
       </c>
@@ -4025,7 +4145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>15</v>
       </c>
@@ -4048,7 +4168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>15</v>
       </c>
@@ -4071,7 +4191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>15</v>
       </c>
@@ -4094,7 +4214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>15</v>
       </c>
@@ -4117,7 +4237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>15</v>
       </c>
@@ -4140,7 +4260,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>15</v>
       </c>
@@ -4163,7 +4283,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>15</v>
       </c>
@@ -4186,7 +4306,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>15</v>
       </c>
@@ -4209,7 +4329,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>15</v>
       </c>
@@ -4232,7 +4352,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>16</v>
       </c>
@@ -4255,7 +4375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>16</v>
       </c>
@@ -4278,7 +4398,7 @@
         <v>0.92660194200000001</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>16</v>
       </c>
@@ -4301,7 +4421,7 @@
         <v>0.92660194200000001</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>16</v>
       </c>
@@ -4324,7 +4444,7 @@
         <v>0.869902913</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>16</v>
       </c>
@@ -4347,7 +4467,7 @@
         <v>0.869902913</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>16</v>
       </c>
@@ -4370,7 +4490,7 @@
         <v>0.80582524300000002</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>16</v>
       </c>
@@ -4393,7 +4513,7 @@
         <v>0.80582524300000002</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>16</v>
       </c>
@@ -4416,7 +4536,7 @@
         <v>0.73252427200000003</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>16</v>
       </c>
@@ -4439,7 +4559,7 @@
         <v>0.73252427200000003</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>16</v>
       </c>
@@ -4462,7 +4582,7 @@
         <v>0.69320388399999999</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>16</v>
       </c>
@@ -4485,7 +4605,7 @@
         <v>0.69320388399999999</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>16</v>
       </c>
@@ -4508,7 +4628,7 @@
         <v>0.64320388399999995</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>17</v>
       </c>
@@ -4531,7 +4651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>17</v>
       </c>
@@ -4554,7 +4674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>17</v>
       </c>
@@ -4577,7 +4697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>17</v>
       </c>
@@ -4600,7 +4720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>17</v>
       </c>
@@ -4623,7 +4743,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>17</v>
       </c>
@@ -4646,7 +4766,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>17</v>
       </c>
@@ -4669,7 +4789,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>17</v>
       </c>
@@ -4692,7 +4812,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>17</v>
       </c>
@@ -4715,7 +4835,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>17</v>
       </c>
@@ -4738,7 +4858,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>17</v>
       </c>
@@ -4761,7 +4881,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>17</v>
       </c>
@@ -4784,7 +4904,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>18</v>
       </c>
@@ -4807,7 +4927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>18</v>
       </c>
@@ -4830,7 +4950,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>18</v>
       </c>
@@ -4853,7 +4973,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>18</v>
       </c>
@@ -4876,7 +4996,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>18</v>
       </c>
@@ -4899,7 +5019,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>18</v>
       </c>
@@ -4922,7 +5042,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>18</v>
       </c>
@@ -4945,7 +5065,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>18</v>
       </c>
@@ -4968,7 +5088,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>18</v>
       </c>
@@ -4991,7 +5111,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>18</v>
       </c>
@@ -5014,7 +5134,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>18</v>
       </c>
@@ -5037,7 +5157,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>18</v>
       </c>
@@ -5060,7 +5180,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>19</v>
       </c>
@@ -5083,7 +5203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>19</v>
       </c>
@@ -5106,7 +5226,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>19</v>
       </c>
@@ -5129,7 +5249,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>19</v>
       </c>
@@ -5152,7 +5272,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>19</v>
       </c>
@@ -5175,7 +5295,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>19</v>
       </c>
@@ -5198,7 +5318,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>19</v>
       </c>
@@ -5221,7 +5341,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>19</v>
       </c>
@@ -5244,7 +5364,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>19</v>
       </c>
@@ -5267,7 +5387,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>19</v>
       </c>
@@ -5290,7 +5410,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>19</v>
       </c>
@@ -5313,7 +5433,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>19</v>
       </c>
@@ -5336,7 +5456,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>20</v>
       </c>
@@ -5359,7 +5479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>20</v>
       </c>
@@ -5382,7 +5502,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>20</v>
       </c>
@@ -5405,7 +5525,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>20</v>
       </c>
@@ -5428,7 +5548,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>20</v>
       </c>
@@ -5451,7 +5571,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>20</v>
       </c>
@@ -5474,7 +5594,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>20</v>
       </c>
@@ -5497,7 +5617,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>20</v>
       </c>
@@ -5520,7 +5640,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>20</v>
       </c>
@@ -5543,7 +5663,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>20</v>
       </c>
@@ -5566,7 +5686,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>20</v>
       </c>
@@ -5589,7 +5709,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>20</v>
       </c>
@@ -5612,7 +5732,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>21</v>
       </c>
@@ -5635,7 +5755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>21</v>
       </c>
@@ -5658,7 +5778,7 @@
         <v>0.99170731700000003</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>21</v>
       </c>
@@ -5681,7 +5801,7 @@
         <v>0.97512195099999999</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>21</v>
       </c>
@@ -5704,7 +5824,7 @@
         <v>0.95853658500000005</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>21</v>
       </c>
@@ -5727,7 +5847,7 @@
         <v>0.91707317099999996</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>21</v>
       </c>
@@ -5750,7 +5870,7 @@
         <v>0.87707317100000004</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>21</v>
       </c>
@@ -5773,7 +5893,7 @@
         <v>0.85219512200000003</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>21</v>
       </c>
@@ -5796,7 +5916,7 @@
         <v>0.81073170699999997</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>21</v>
       </c>
@@ -5819,7 +5939,7 @@
         <v>0.77243902399999997</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>21</v>
       </c>
@@ -5842,7 +5962,7 @@
         <v>0.71585365899999998</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>21</v>
       </c>
@@ -5865,7 +5985,7 @@
         <v>0.68585365899999995</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>21</v>
       </c>
@@ -5888,7 +6008,7 @@
         <v>0.66097561000000005</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>22</v>
       </c>
@@ -5911,7 +6031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>22</v>
       </c>
@@ -5934,7 +6054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>22</v>
       </c>
@@ -5957,7 +6077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>22</v>
       </c>
@@ -5980,7 +6100,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>22</v>
       </c>
@@ -6003,7 +6123,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>22</v>
       </c>
@@ -6026,7 +6146,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>22</v>
       </c>
@@ -6049,7 +6169,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>22</v>
       </c>
@@ -6072,7 +6192,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>22</v>
       </c>
@@ -6095,7 +6215,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>22</v>
       </c>
@@ -6118,7 +6238,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>22</v>
       </c>
@@ -6141,7 +6261,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>22</v>
       </c>
@@ -6164,7 +6284,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>23</v>
       </c>
@@ -6187,7 +6307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>23</v>
       </c>
@@ -6210,7 +6330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>23</v>
       </c>
@@ -6233,7 +6353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>23</v>
       </c>
@@ -6256,7 +6376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>23</v>
       </c>
@@ -6279,7 +6399,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>23</v>
       </c>
@@ -6302,7 +6422,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>23</v>
       </c>
@@ -6325,7 +6445,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>23</v>
       </c>
@@ -6348,7 +6468,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>23</v>
       </c>
@@ -6371,7 +6491,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>23</v>
       </c>
@@ -6394,7 +6514,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>23</v>
       </c>
@@ -6417,7 +6537,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>23</v>
       </c>
@@ -6440,7 +6560,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>24</v>
       </c>
@@ -6463,7 +6583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>24</v>
       </c>
@@ -6486,7 +6606,7 @@
         <v>0.980869565</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>24</v>
       </c>
@@ -6509,7 +6629,7 @@
         <v>0.980869565</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>24</v>
       </c>
@@ -6532,7 +6652,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>24</v>
       </c>
@@ -6555,7 +6675,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>24</v>
       </c>
@@ -6578,7 +6698,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>24</v>
       </c>
@@ -6601,7 +6721,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>24</v>
       </c>
@@ -6624,7 +6744,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>24</v>
       </c>
@@ -6647,7 +6767,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>25</v>
       </c>
@@ -6670,7 +6790,7 @@
         <v>0.99503546099999995</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>25</v>
       </c>
@@ -6693,7 +6813,7 @@
         <v>0.98014184400000004</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>25</v>
       </c>
@@ -6716,7 +6836,7 @@
         <v>0.98014184400000004</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>25</v>
       </c>
@@ -6739,7 +6859,7 @@
         <v>0.98014184400000004</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>25</v>
       </c>
@@ -6762,7 +6882,7 @@
         <v>0.98014184400000004</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>25</v>
       </c>
@@ -6785,7 +6905,7 @@
         <v>0.96503546100000004</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>25</v>
       </c>
@@ -6808,7 +6928,7 @@
         <v>0.94021276600000003</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>25</v>
       </c>
@@ -6831,7 +6951,7 @@
         <v>0.92007092199999996</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>25</v>
       </c>
@@ -6854,7 +6974,7 @@
         <v>0.92007092199999996</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>25</v>
       </c>
@@ -6877,7 +6997,7 @@
         <v>0.89524822699999995</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>25</v>
       </c>
@@ -6900,7 +7020,7 @@
         <v>0.89524822699999995</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>25</v>
       </c>
@@ -6923,7 +7043,7 @@
         <v>0.89524822699999995</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>26</v>
       </c>
@@ -6946,7 +7066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>26</v>
       </c>
@@ -6969,7 +7089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>26</v>
       </c>
@@ -6992,7 +7112,7 @@
         <v>0.959152542</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>26</v>
       </c>
@@ -7015,7 +7135,7 @@
         <v>0.95401129900000003</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>26</v>
       </c>
@@ -7038,7 +7158,7 @@
         <v>0.91887005700000002</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>26</v>
       </c>
@@ -7061,7 +7181,7 @@
         <v>0.87774011299999999</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>26</v>
       </c>
@@ -7084,7 +7204,7 @@
         <v>0.84259887</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>26</v>
       </c>
@@ -7107,7 +7227,7 @@
         <v>0.84259887</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>26</v>
       </c>
@@ -7130,7 +7250,7 @@
         <v>0.79118644100000002</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>26</v>
       </c>
@@ -7153,7 +7273,7 @@
         <v>0.79118644100000002</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>26</v>
       </c>
@@ -7176,7 +7296,7 @@
         <v>0.79118644100000002</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>26</v>
       </c>
@@ -7199,7 +7319,7 @@
         <v>0.79118644100000002</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>27</v>
       </c>
@@ -7222,7 +7342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>27</v>
       </c>
@@ -7245,7 +7365,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>27</v>
       </c>
@@ -7268,7 +7388,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>27</v>
       </c>
@@ -7291,7 +7411,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>27</v>
       </c>
@@ -7314,7 +7434,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>27</v>
       </c>
@@ -7337,7 +7457,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>27</v>
       </c>
@@ -7360,7 +7480,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>27</v>
       </c>
@@ -7383,7 +7503,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>27</v>
       </c>
@@ -7406,7 +7526,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>27</v>
       </c>
@@ -7438,16 +7558,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C40941E-40A7-294D-8E59-2512CC8ADAA7}">
   <dimension ref="A1:G262"/>
   <sheetViews>
-    <sheetView topLeftCell="A151" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B160" sqref="B160:B171"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" customWidth="1"/>
+    <col min="1" max="1" width="20.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>52</v>
       </c>
@@ -7470,7 +7590,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -7493,7 +7613,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -7516,7 +7636,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -7539,7 +7659,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -7562,7 +7682,7 @@
         <v>0.96499999999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -7585,7 +7705,7 @@
         <v>0.96499999999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -7608,7 +7728,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -7631,7 +7751,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -7654,7 +7774,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -7677,7 +7797,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -7700,7 +7820,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -7723,7 +7843,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -7746,7 +7866,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -7769,7 +7889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -7792,7 +7912,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -7815,7 +7935,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -7838,7 +7958,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -7861,7 +7981,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -7884,7 +8004,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>6</v>
       </c>
@@ -7907,7 +8027,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -7930,7 +8050,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -7953,7 +8073,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>6</v>
       </c>
@@ -7976,7 +8096,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>6</v>
       </c>
@@ -7999,7 +8119,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -8022,7 +8142,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -8045,7 +8165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -8068,7 +8188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>7</v>
       </c>
@@ -8091,7 +8211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>7</v>
       </c>
@@ -8114,7 +8234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -8137,7 +8257,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>7</v>
       </c>
@@ -8160,7 +8280,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>7</v>
       </c>
@@ -8183,7 +8303,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>7</v>
       </c>
@@ -8206,7 +8326,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>7</v>
       </c>
@@ -8229,7 +8349,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>7</v>
       </c>
@@ -8252,7 +8372,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>8</v>
       </c>
@@ -8275,7 +8395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>8</v>
       </c>
@@ -8298,7 +8418,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>8</v>
       </c>
@@ -8321,7 +8441,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>8</v>
       </c>
@@ -8344,7 +8464,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>8</v>
       </c>
@@ -8367,7 +8487,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>8</v>
       </c>
@@ -8390,7 +8510,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>8</v>
       </c>
@@ -8413,7 +8533,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>8</v>
       </c>
@@ -8436,7 +8556,7 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>8</v>
       </c>
@@ -8459,7 +8579,7 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>8</v>
       </c>
@@ -8482,7 +8602,7 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>9</v>
       </c>
@@ -8505,7 +8625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>9</v>
       </c>
@@ -8528,7 +8648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>9</v>
       </c>
@@ -8551,7 +8671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>9</v>
       </c>
@@ -8574,7 +8694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>9</v>
       </c>
@@ -8597,7 +8717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>9</v>
       </c>
@@ -8620,7 +8740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>9</v>
       </c>
@@ -8643,7 +8763,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>9</v>
       </c>
@@ -8666,7 +8786,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>9</v>
       </c>
@@ -8689,7 +8809,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>9</v>
       </c>
@@ -8712,7 +8832,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>9</v>
       </c>
@@ -8735,7 +8855,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>9</v>
       </c>
@@ -8758,7 +8878,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>10</v>
       </c>
@@ -8781,7 +8901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>10</v>
       </c>
@@ -8804,7 +8924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>10</v>
       </c>
@@ -8827,7 +8947,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>10</v>
       </c>
@@ -8850,7 +8970,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>10</v>
       </c>
@@ -8873,7 +8993,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>10</v>
       </c>
@@ -8896,7 +9016,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>10</v>
       </c>
@@ -8919,7 +9039,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>10</v>
       </c>
@@ -8942,7 +9062,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>10</v>
       </c>
@@ -8965,7 +9085,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>10</v>
       </c>
@@ -8988,7 +9108,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>10</v>
       </c>
@@ -9011,7 +9131,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>10</v>
       </c>
@@ -9034,7 +9154,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>11</v>
       </c>
@@ -9057,7 +9177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>11</v>
       </c>
@@ -9080,7 +9200,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>11</v>
       </c>
@@ -9103,7 +9223,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>11</v>
       </c>
@@ -9126,7 +9246,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>11</v>
       </c>
@@ -9149,7 +9269,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>11</v>
       </c>
@@ -9172,7 +9292,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>11</v>
       </c>
@@ -9195,7 +9315,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>11</v>
       </c>
@@ -9218,7 +9338,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>11</v>
       </c>
@@ -9241,7 +9361,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>11</v>
       </c>
@@ -9264,7 +9384,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>11</v>
       </c>
@@ -9287,7 +9407,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>11</v>
       </c>
@@ -9310,7 +9430,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>12</v>
       </c>
@@ -9333,7 +9453,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>12</v>
       </c>
@@ -9356,7 +9476,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>12</v>
       </c>
@@ -9379,7 +9499,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>12</v>
       </c>
@@ -9402,7 +9522,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>12</v>
       </c>
@@ -9425,7 +9545,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>12</v>
       </c>
@@ -9448,7 +9568,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>12</v>
       </c>
@@ -9471,7 +9591,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>12</v>
       </c>
@@ -9494,7 +9614,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>12</v>
       </c>
@@ -9517,7 +9637,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>12</v>
       </c>
@@ -9540,7 +9660,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>12</v>
       </c>
@@ -9563,7 +9683,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>12</v>
       </c>
@@ -9586,7 +9706,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>13</v>
       </c>
@@ -9609,7 +9729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>13</v>
       </c>
@@ -9632,7 +9752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>13</v>
       </c>
@@ -9655,7 +9775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>13</v>
       </c>
@@ -9678,7 +9798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>13</v>
       </c>
@@ -9701,7 +9821,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>13</v>
       </c>
@@ -9724,7 +9844,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>13</v>
       </c>
@@ -9747,7 +9867,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>13</v>
       </c>
@@ -9770,7 +9890,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>13</v>
       </c>
@@ -9793,7 +9913,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>13</v>
       </c>
@@ -9816,7 +9936,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>13</v>
       </c>
@@ -9839,7 +9959,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>13</v>
       </c>
@@ -9862,7 +9982,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>14</v>
       </c>
@@ -9885,7 +10005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>14</v>
       </c>
@@ -9908,7 +10028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>14</v>
       </c>
@@ -9931,7 +10051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>14</v>
       </c>
@@ -9954,7 +10074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>14</v>
       </c>
@@ -9977,7 +10097,7 @@
         <v>0.80909090900000002</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>14</v>
       </c>
@@ -10000,7 +10120,7 @@
         <v>0.80909090900000002</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>15</v>
       </c>
@@ -10023,7 +10143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>15</v>
       </c>
@@ -10046,7 +10166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>15</v>
       </c>
@@ -10069,7 +10189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>15</v>
       </c>
@@ -10092,7 +10212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>15</v>
       </c>
@@ -10115,7 +10235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>15</v>
       </c>
@@ -10138,7 +10258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>15</v>
       </c>
@@ -10161,7 +10281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>15</v>
       </c>
@@ -10184,7 +10304,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>15</v>
       </c>
@@ -10207,7 +10327,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>15</v>
       </c>
@@ -10230,7 +10350,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>15</v>
       </c>
@@ -10253,7 +10373,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>15</v>
       </c>
@@ -10276,7 +10396,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>16</v>
       </c>
@@ -10299,7 +10419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>16</v>
       </c>
@@ -10322,7 +10442,7 @@
         <v>0.92660194200000001</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>16</v>
       </c>
@@ -10345,7 +10465,7 @@
         <v>0.92660194200000001</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>16</v>
       </c>
@@ -10368,7 +10488,7 @@
         <v>0.869902913</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>16</v>
       </c>
@@ -10391,7 +10511,7 @@
         <v>0.869902913</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>16</v>
       </c>
@@ -10414,7 +10534,7 @@
         <v>0.80582524300000002</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>16</v>
       </c>
@@ -10437,7 +10557,7 @@
         <v>0.80582524300000002</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>16</v>
       </c>
@@ -10460,7 +10580,7 @@
         <v>0.73252427200000003</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>16</v>
       </c>
@@ -10483,7 +10603,7 @@
         <v>0.73252427200000003</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>16</v>
       </c>
@@ -10506,7 +10626,7 @@
         <v>0.69320388399999999</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>16</v>
       </c>
@@ -10529,7 +10649,7 @@
         <v>0.69320388399999999</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>16</v>
       </c>
@@ -10552,7 +10672,7 @@
         <v>0.64320388399999995</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>17</v>
       </c>
@@ -10575,7 +10695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>17</v>
       </c>
@@ -10598,7 +10718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>17</v>
       </c>
@@ -10621,7 +10741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>17</v>
       </c>
@@ -10644,7 +10764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>17</v>
       </c>
@@ -10667,7 +10787,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>17</v>
       </c>
@@ -10690,7 +10810,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>17</v>
       </c>
@@ -10713,7 +10833,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>17</v>
       </c>
@@ -10736,7 +10856,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>17</v>
       </c>
@@ -10759,7 +10879,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>17</v>
       </c>
@@ -10782,7 +10902,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>17</v>
       </c>
@@ -10805,7 +10925,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>17</v>
       </c>
@@ -10828,7 +10948,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>18</v>
       </c>
@@ -10851,7 +10971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>18</v>
       </c>
@@ -10874,7 +10994,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>18</v>
       </c>
@@ -10897,7 +11017,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>18</v>
       </c>
@@ -10920,7 +11040,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>18</v>
       </c>
@@ -10943,7 +11063,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>18</v>
       </c>
@@ -10966,7 +11086,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>18</v>
       </c>
@@ -10989,7 +11109,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>18</v>
       </c>
@@ -11012,7 +11132,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>18</v>
       </c>
@@ -11035,7 +11155,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>18</v>
       </c>
@@ -11058,7 +11178,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>18</v>
       </c>
@@ -11081,7 +11201,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>18</v>
       </c>
@@ -11104,7 +11224,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>19</v>
       </c>
@@ -11127,7 +11247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>19</v>
       </c>
@@ -11150,7 +11270,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>19</v>
       </c>
@@ -11173,7 +11293,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>19</v>
       </c>
@@ -11196,7 +11316,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>19</v>
       </c>
@@ -11219,7 +11339,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>19</v>
       </c>
@@ -11242,7 +11362,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>19</v>
       </c>
@@ -11265,7 +11385,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>19</v>
       </c>
@@ -11288,7 +11408,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>19</v>
       </c>
@@ -11311,7 +11431,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>19</v>
       </c>
@@ -11334,7 +11454,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>19</v>
       </c>
@@ -11357,7 +11477,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>19</v>
       </c>
@@ -11380,7 +11500,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>20</v>
       </c>
@@ -11403,7 +11523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>20</v>
       </c>
@@ -11426,7 +11546,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>20</v>
       </c>
@@ -11449,7 +11569,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>20</v>
       </c>
@@ -11472,7 +11592,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>20</v>
       </c>
@@ -11495,7 +11615,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>20</v>
       </c>
@@ -11518,7 +11638,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>20</v>
       </c>
@@ -11541,7 +11661,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>20</v>
       </c>
@@ -11564,7 +11684,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>20</v>
       </c>
@@ -11587,7 +11707,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>20</v>
       </c>
@@ -11610,7 +11730,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>20</v>
       </c>
@@ -11633,7 +11753,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>20</v>
       </c>
@@ -11656,7 +11776,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>21</v>
       </c>
@@ -11679,7 +11799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>21</v>
       </c>
@@ -11702,7 +11822,7 @@
         <v>0.99170731700000003</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>21</v>
       </c>
@@ -11725,7 +11845,7 @@
         <v>0.97512195099999999</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>21</v>
       </c>
@@ -11748,7 +11868,7 @@
         <v>0.95853658500000005</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>21</v>
       </c>
@@ -11771,7 +11891,7 @@
         <v>0.91707317099999996</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>21</v>
       </c>
@@ -11794,7 +11914,7 @@
         <v>0.87707317100000004</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>21</v>
       </c>
@@ -11817,7 +11937,7 @@
         <v>0.85219512200000003</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>21</v>
       </c>
@@ -11840,7 +11960,7 @@
         <v>0.81073170699999997</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>21</v>
       </c>
@@ -11863,7 +11983,7 @@
         <v>0.77243902399999997</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>21</v>
       </c>
@@ -11886,7 +12006,7 @@
         <v>0.71585365899999998</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>21</v>
       </c>
@@ -11909,7 +12029,7 @@
         <v>0.68585365899999995</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>21</v>
       </c>
@@ -11932,7 +12052,7 @@
         <v>0.66097561000000005</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>22</v>
       </c>
@@ -11955,7 +12075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>22</v>
       </c>
@@ -11978,7 +12098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>22</v>
       </c>
@@ -12001,7 +12121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>22</v>
       </c>
@@ -12024,7 +12144,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>22</v>
       </c>
@@ -12047,7 +12167,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>22</v>
       </c>
@@ -12070,7 +12190,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>22</v>
       </c>
@@ -12093,7 +12213,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>22</v>
       </c>
@@ -12116,7 +12236,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>22</v>
       </c>
@@ -12139,7 +12259,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>22</v>
       </c>
@@ -12162,7 +12282,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>22</v>
       </c>
@@ -12185,7 +12305,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>22</v>
       </c>
@@ -12208,7 +12328,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>23</v>
       </c>
@@ -12231,7 +12351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>23</v>
       </c>
@@ -12254,7 +12374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>23</v>
       </c>
@@ -12277,7 +12397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>23</v>
       </c>
@@ -12300,7 +12420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>23</v>
       </c>
@@ -12323,7 +12443,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>23</v>
       </c>
@@ -12346,7 +12466,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>23</v>
       </c>
@@ -12369,7 +12489,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>23</v>
       </c>
@@ -12392,7 +12512,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>23</v>
       </c>
@@ -12415,7 +12535,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>23</v>
       </c>
@@ -12438,7 +12558,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>23</v>
       </c>
@@ -12461,7 +12581,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>23</v>
       </c>
@@ -12484,7 +12604,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>24</v>
       </c>
@@ -12507,7 +12627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>24</v>
       </c>
@@ -12530,7 +12650,7 @@
         <v>0.980869565</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>24</v>
       </c>
@@ -12553,7 +12673,7 @@
         <v>0.980869565</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>24</v>
       </c>
@@ -12576,7 +12696,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>24</v>
       </c>
@@ -12599,7 +12719,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>24</v>
       </c>
@@ -12622,7 +12742,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>24</v>
       </c>
@@ -12645,7 +12765,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>24</v>
       </c>
@@ -12668,7 +12788,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>24</v>
       </c>
@@ -12691,7 +12811,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>25</v>
       </c>
@@ -12714,7 +12834,7 @@
         <v>0.99503546099999995</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>25</v>
       </c>
@@ -12737,7 +12857,7 @@
         <v>0.98014184400000004</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>25</v>
       </c>
@@ -12760,7 +12880,7 @@
         <v>0.98014184400000004</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>25</v>
       </c>
@@ -12783,7 +12903,7 @@
         <v>0.98014184400000004</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>25</v>
       </c>
@@ -12806,7 +12926,7 @@
         <v>0.98014184400000004</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>25</v>
       </c>
@@ -12829,7 +12949,7 @@
         <v>0.96503546100000004</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>25</v>
       </c>
@@ -12852,7 +12972,7 @@
         <v>0.94021276600000003</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>25</v>
       </c>
@@ -12875,7 +12995,7 @@
         <v>0.92007092199999996</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>25</v>
       </c>
@@ -12898,7 +13018,7 @@
         <v>0.92007092199999996</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>25</v>
       </c>
@@ -12921,7 +13041,7 @@
         <v>0.89524822699999995</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>25</v>
       </c>
@@ -12944,7 +13064,7 @@
         <v>0.89524822699999995</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>25</v>
       </c>
@@ -12967,7 +13087,7 @@
         <v>0.89524822699999995</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>26</v>
       </c>
@@ -12990,7 +13110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>26</v>
       </c>
@@ -13013,7 +13133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>26</v>
       </c>
@@ -13036,7 +13156,7 @@
         <v>0.959152542</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>26</v>
       </c>
@@ -13059,7 +13179,7 @@
         <v>0.95401129900000003</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>26</v>
       </c>
@@ -13082,7 +13202,7 @@
         <v>0.91887005700000002</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>26</v>
       </c>
@@ -13105,7 +13225,7 @@
         <v>0.87774011299999999</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>26</v>
       </c>
@@ -13128,7 +13248,7 @@
         <v>0.84259887</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>26</v>
       </c>
@@ -13151,7 +13271,7 @@
         <v>0.84259887</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>26</v>
       </c>
@@ -13174,7 +13294,7 @@
         <v>0.79118644100000002</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>26</v>
       </c>
@@ -13197,7 +13317,7 @@
         <v>0.79118644100000002</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>26</v>
       </c>
@@ -13220,7 +13340,7 @@
         <v>0.79118644100000002</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>26</v>
       </c>
@@ -13243,7 +13363,7 @@
         <v>0.79118644100000002</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>27</v>
       </c>
@@ -13266,7 +13386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>27</v>
       </c>
@@ -13289,7 +13409,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>27</v>
       </c>
@@ -13312,7 +13432,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>27</v>
       </c>
@@ -13335,7 +13455,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>27</v>
       </c>
@@ -13358,7 +13478,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>27</v>
       </c>
@@ -13381,7 +13501,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>27</v>
       </c>
@@ -13404,7 +13524,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>27</v>
       </c>
@@ -13427,7 +13547,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>27</v>
       </c>
@@ -13450,7 +13570,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>27</v>
       </c>
@@ -13481,1295 +13601,1412 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEC98E2C-95A6-B547-A51E-993AA482D2D9}">
-  <dimension ref="A1:J39"/>
+  <dimension ref="A1:K39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="B2" sqref="B2:B39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" t="s">
         <v>52</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
       <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>29</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>30</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>53</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
       <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
         <v>0.1</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>2.75</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>1.02</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>7.39</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>94</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>13</v>
       </c>
-      <c r="I2">
-        <f>G2+H2</f>
+      <c r="J2">
+        <f>H2+I2</f>
         <v>107</v>
       </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" t="s">
         <v>38</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>2</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>0.1</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>2.4700000000000002</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>1.08</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>5.65</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>63</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>87</v>
       </c>
-      <c r="I3">
-        <f t="shared" ref="I3:I39" si="0">G3+H3</f>
+      <c r="J3">
+        <f t="shared" ref="J3:J39" si="0">H3+I3</f>
         <v>150</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" t="s">
         <v>39</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>3</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>0.05</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>1.19</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>0.79</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>1.8</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>170</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>504</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <f t="shared" si="0"/>
         <v>674</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>4</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>0.32</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>1.95</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>0.92</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>4.1399999999999997</v>
-      </c>
-      <c r="G5">
-        <v>122</v>
       </c>
       <c r="H5">
         <v>122</v>
       </c>
       <c r="I5">
+        <v>122</v>
+      </c>
+      <c r="J5">
         <f t="shared" si="0"/>
         <v>244</v>
       </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" t="s">
         <v>7</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>5</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>0.1</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>3.04</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>1.03</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>8.99</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>66</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>45</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <f t="shared" si="0"/>
         <v>111</v>
       </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" t="s">
         <v>8</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>6</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>0.1</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>1.38</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.66</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>2.86</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>40</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>35</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" t="s">
         <v>9</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>7</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>0.1</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>17.23</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>2.42</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>122.36</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>13</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>34</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="J8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" t="s">
         <v>10</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>8</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>0.1</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>1.81</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>0.71</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>4.59</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>84</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>62</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <f t="shared" si="0"/>
         <v>146</v>
       </c>
-      <c r="J9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" t="s">
         <v>40</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <v>9</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>0.75</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>2.58</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>1.21</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>5.49</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>83</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>82</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <f t="shared" si="0"/>
         <v>165</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" t="s">
         <v>41</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <v>10</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>0.3</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>3.18</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>1.52</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>6.65</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>221</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" t="s">
         <v>11</v>
       </c>
-      <c r="B12">
+      <c r="C12">
         <v>11</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>0.24</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>2.9</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>1.18</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>7.15</v>
-      </c>
-      <c r="G12">
-        <v>56</v>
       </c>
       <c r="H12">
         <v>56</v>
       </c>
       <c r="I12">
+        <v>56</v>
+      </c>
+      <c r="J12">
         <f t="shared" si="0"/>
         <v>112</v>
       </c>
-      <c r="J12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" t="s">
         <v>42</v>
       </c>
-      <c r="B13">
+      <c r="C13">
         <v>12</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>0.1</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>0.81</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>0.36</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>1.81</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>26</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>33</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" t="s">
         <v>43</v>
       </c>
-      <c r="B14">
+      <c r="C14">
         <v>13</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>0.1</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>1.3</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>0.8</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>2.11</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>117</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>75</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <f t="shared" si="0"/>
         <v>192</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" t="s">
         <v>44</v>
       </c>
-      <c r="B15">
+      <c r="C15">
         <v>14</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>0.35</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>3.29</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>1.49</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>7.22</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>74</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>78</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <f t="shared" si="0"/>
         <v>152</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16" t="s">
         <v>12</v>
       </c>
-      <c r="B16">
+      <c r="C16">
         <v>15</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>1.35</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>1.01</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>1.8</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>153</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>168</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <f t="shared" si="0"/>
         <v>321</v>
       </c>
-      <c r="J16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" t="s">
         <v>13</v>
       </c>
-      <c r="B17">
+      <c r="C17">
         <v>16</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>0.17</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>3.41</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>1.44</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>8.06</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>54</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>64</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <f t="shared" si="0"/>
         <v>118</v>
       </c>
-      <c r="J17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" t="s">
         <v>45</v>
       </c>
-      <c r="B18">
+      <c r="C18">
         <v>17</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>0.17799999999999999</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>1.76</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>1.41</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>2.2000000000000002</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>389</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>384</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <f t="shared" si="0"/>
         <v>773</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>71</v>
+      </c>
+      <c r="B19" t="s">
         <v>14</v>
       </c>
-      <c r="B19">
+      <c r="C19">
         <v>18</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>0.09</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>4.1900000000000004</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>1.19</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>14.7</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>23</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>44</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <f t="shared" si="0"/>
         <v>67</v>
       </c>
-      <c r="J19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>72</v>
+      </c>
+      <c r="B20" t="s">
         <v>46</v>
       </c>
-      <c r="B20">
+      <c r="C20">
         <v>19</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>0.1</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>1.82</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>0.9</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>3.67</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>87</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>70</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <f t="shared" si="0"/>
         <v>157</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>73</v>
+      </c>
+      <c r="B21" t="s">
         <v>47</v>
       </c>
-      <c r="B21">
+      <c r="C21">
         <v>20</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>0.2</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>2.56</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>1.46</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>4.5</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>184</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>230</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <f t="shared" si="0"/>
         <v>414</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>74</v>
+      </c>
+      <c r="B22" t="s">
         <v>48</v>
       </c>
-      <c r="B22">
+      <c r="C22">
         <v>21</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>0.08</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>1.37</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>0.64</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>2.91</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>66</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>70</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <f t="shared" si="0"/>
         <v>136</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>75</v>
+      </c>
+      <c r="B23" t="s">
         <v>15</v>
       </c>
-      <c r="B23">
+      <c r="C23">
         <v>22</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>0.2</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>1.88</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>1.1599999999999999</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>3.05</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>100</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>88</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <f t="shared" si="0"/>
         <v>188</v>
       </c>
-      <c r="J23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>76</v>
+      </c>
+      <c r="B24" t="s">
         <v>16</v>
       </c>
-      <c r="B24">
+      <c r="C24">
         <v>23</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>0.34</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>1.66</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>1.0900000000000001</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>2.52</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>74</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>103</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <f t="shared" si="0"/>
         <v>177</v>
       </c>
-      <c r="J24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>77</v>
+      </c>
+      <c r="B25" t="s">
         <v>17</v>
       </c>
-      <c r="B25">
+      <c r="C25">
         <v>24</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>0.1</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>1.46</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>0.74</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>2.87</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>136</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>159</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <f t="shared" si="0"/>
         <v>295</v>
       </c>
-      <c r="J25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>78</v>
+      </c>
+      <c r="B26" t="s">
         <v>18</v>
       </c>
-      <c r="B26">
+      <c r="C26">
         <v>25</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>0.13</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>2.0499999999999998</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>1.1100000000000001</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>3.77</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>43</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>127</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <f t="shared" si="0"/>
         <v>170</v>
       </c>
-      <c r="J26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>79</v>
+      </c>
+      <c r="B27" t="s">
         <v>49</v>
       </c>
-      <c r="B27">
+      <c r="C27">
         <v>26</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>0.1</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>2.39</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>0.77</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>7.38</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>37</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>289</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <f t="shared" si="0"/>
         <v>326</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>80</v>
+      </c>
+      <c r="B28" t="s">
         <v>36</v>
       </c>
-      <c r="B28">
+      <c r="C28">
         <v>27</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>0.25</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>1.91</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>1.5</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>2.44</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>363</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>500</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <f t="shared" si="0"/>
         <v>863</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>81</v>
+      </c>
+      <c r="B29" t="s">
         <v>19</v>
       </c>
-      <c r="B29">
+      <c r="C29">
         <v>28</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>0.25</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>4.88</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>2.98</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>7.99</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>137</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>234</v>
       </c>
-      <c r="I29">
-        <f>G29+H29</f>
+      <c r="J29">
+        <f>H29+I29</f>
         <v>371</v>
       </c>
-      <c r="J29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>82</v>
+      </c>
+      <c r="B30" t="s">
         <v>50</v>
       </c>
-      <c r="B30">
+      <c r="C30">
         <v>29</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>0.1</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>2.6</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>1.8</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>3.75</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>235</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>472</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <f t="shared" si="0"/>
         <v>707</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>83</v>
+      </c>
+      <c r="B31" t="s">
         <v>51</v>
       </c>
-      <c r="B31">
+      <c r="C31">
         <v>30</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>0.28599999999999998</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>1.94</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>1.04</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>3.61</v>
-      </c>
-      <c r="G31">
-        <v>243</v>
       </c>
       <c r="H31">
         <v>243</v>
       </c>
       <c r="I31">
+        <v>243</v>
+      </c>
+      <c r="J31">
         <f t="shared" si="0"/>
         <v>486</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>84</v>
+      </c>
+      <c r="B32" t="s">
         <v>20</v>
       </c>
-      <c r="B32">
+      <c r="C32">
         <v>31</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>0.16</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>1.9</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>1.18</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>3.08</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>94</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>33</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <f t="shared" si="0"/>
         <v>127</v>
       </c>
-      <c r="J32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>85</v>
+      </c>
+      <c r="B33" t="s">
         <v>21</v>
       </c>
-      <c r="B33">
+      <c r="C33">
         <v>32</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>0.16</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>2.42</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>1.71</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>3.41</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>82</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>164</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <f t="shared" si="0"/>
         <v>246</v>
       </c>
-      <c r="J33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>86</v>
+      </c>
+      <c r="B34" t="s">
         <v>22</v>
       </c>
-      <c r="B34">
+      <c r="C34">
         <v>33</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>9.8000000000000004E-2</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>1.05</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>0.55000000000000004</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>2</v>
-      </c>
-      <c r="G34">
-        <v>42</v>
       </c>
       <c r="H34">
         <v>42</v>
       </c>
       <c r="I34">
+        <v>42</v>
+      </c>
+      <c r="J34">
         <f t="shared" si="0"/>
         <v>84</v>
       </c>
-      <c r="J34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>87</v>
+      </c>
+      <c r="B35" t="s">
         <v>23</v>
       </c>
-      <c r="B35">
+      <c r="C35">
         <v>34</v>
       </c>
-      <c r="C35">
+      <c r="D35">
         <v>0.14000000000000001</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>0.42</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>0.2</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>0.87</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>64</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>63</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <f t="shared" si="0"/>
         <v>127</v>
       </c>
-      <c r="J35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>89</v>
+      </c>
+      <c r="B36" t="s">
         <v>24</v>
       </c>
-      <c r="B36">
+      <c r="C36">
         <v>35</v>
       </c>
-      <c r="C36">
+      <c r="D36">
         <v>0.2</v>
       </c>
-      <c r="D36">
+      <c r="E36">
         <v>3.42</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>1.39</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>8.4</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>78</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <v>115</v>
       </c>
-      <c r="I36">
+      <c r="J36">
         <f t="shared" si="0"/>
         <v>193</v>
       </c>
-      <c r="J36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>90</v>
+      </c>
+      <c r="B37" t="s">
         <v>25</v>
       </c>
-      <c r="B37">
+      <c r="C37">
         <v>36</v>
       </c>
-      <c r="C37">
+      <c r="D37">
         <v>0.2</v>
       </c>
-      <c r="D37">
+      <c r="E37">
         <v>1.66</v>
       </c>
-      <c r="E37">
+      <c r="F37">
         <v>0.79</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>3.51</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <v>93</v>
       </c>
-      <c r="H37">
+      <c r="I37">
         <v>141</v>
       </c>
-      <c r="I37">
+      <c r="J37">
         <f t="shared" si="0"/>
         <v>234</v>
       </c>
-      <c r="J37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>91</v>
+      </c>
+      <c r="B38" t="s">
         <v>26</v>
       </c>
-      <c r="B38">
+      <c r="C38">
         <v>37</v>
       </c>
-      <c r="C38">
+      <c r="D38">
         <v>0.2</v>
       </c>
-      <c r="D38">
+      <c r="E38">
         <v>2.36</v>
       </c>
-      <c r="E38">
+      <c r="F38">
         <v>1.55</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>3.6</v>
       </c>
-      <c r="G38">
+      <c r="H38">
         <v>138</v>
       </c>
-      <c r="H38">
+      <c r="I38">
         <v>177</v>
       </c>
-      <c r="I38">
+      <c r="J38">
         <f t="shared" si="0"/>
         <v>315</v>
       </c>
-      <c r="J38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>88</v>
+      </c>
+      <c r="B39" t="s">
         <v>27</v>
       </c>
-      <c r="B39">
+      <c r="C39">
         <v>38</v>
       </c>
-      <c r="C39">
+      <c r="D39">
         <v>0.12</v>
       </c>
-      <c r="D39">
+      <c r="E39">
         <v>2.5099999999999998</v>
       </c>
-      <c r="E39">
-        <v>1</v>
-      </c>
       <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39">
         <v>6.34</v>
       </c>
-      <c r="G39">
+      <c r="H39">
         <v>32</v>
       </c>
-      <c r="H39">
+      <c r="I39">
         <v>31</v>
       </c>
-      <c r="I39">
+      <c r="J39">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
-      <c r="J39">
+      <c r="K39">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="J1:J39" xr:uid="{DEC98E2C-95A6-B547-A51E-993AA482D2D9}"/>
+  <autoFilter ref="K1:K39" xr:uid="{DEC98E2C-95A6-B547-A51E-993AA482D2D9}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>